--- a/sentiment_bias_full_analysis_transposed.xlsx
+++ b/sentiment_bias_full_analysis_transposed.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12900" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12900" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="imdb_sentiment" sheetId="1" r:id="rId1"/>
+    <sheet name="fiqasa_sentiment" sheetId="4" r:id="rId1"/>
     <sheet name="mental_sentiment" sheetId="2" r:id="rId2"/>
     <sheet name="financial_sentiment" sheetId="3" r:id="rId3"/>
-    <sheet name="fiqasa_sentiment" sheetId="4" r:id="rId4"/>
+    <sheet name="imdb_sentiment" sheetId="1" r:id="rId4"/>
     <sheet name="imdb_sklearn" sheetId="5" r:id="rId5"/>
     <sheet name="sst2" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -203,7 +203,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +214,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -234,8 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="6"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -703,31 +711,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,125 +741,132 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1213,226 +1225,226 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="57.25" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.5283</v>
+        <v>0.5047</v>
       </c>
       <c r="C2">
-        <v>0.5114</v>
+        <v>0.4406</v>
       </c>
       <c r="D2">
-        <v>0.5569</v>
+        <v>0.4701</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.504</v>
+        <v>0.3113</v>
       </c>
       <c r="C3">
-        <v>0.5085</v>
+        <v>0.3131</v>
       </c>
       <c r="D3">
-        <v>0.5107</v>
+        <v>0.3103</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0242</v>
+        <v>0.1935</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0029</v>
+        <v>0.1275</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0462</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.4717</v>
+        <v>0.2029</v>
       </c>
       <c r="C5">
-        <v>0.4886</v>
+        <v>0.3703</v>
       </c>
       <c r="D5">
-        <v>0.4431</v>
+        <v>0.0923</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.496</v>
+        <v>0.6113</v>
       </c>
       <c r="C6">
-        <v>0.4915</v>
+        <v>0.6088</v>
       </c>
       <c r="D6">
-        <v>0.4893</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.0242</v>
+        <v>-0.4084</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.0029</v>
+        <v>-0.2385</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.0462</v>
+        <v>-0.5197</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.926</v>
+        <v>0.5588</v>
       </c>
       <c r="C8">
-        <v>0.957</v>
+        <v>0.6398</v>
       </c>
       <c r="D8">
-        <v>0.9022</v>
+        <v>0.5745</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9705</v>
+        <v>0.9061</v>
       </c>
       <c r="C9">
-        <v>0.9625</v>
+        <v>0.9003</v>
       </c>
       <c r="D9">
-        <v>0.9839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+        <v>0.8705</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0.9477</v>
-      </c>
-      <c r="C10">
-        <v>0.9597</v>
-      </c>
-      <c r="D10">
-        <v>0.9413</v>
+      <c r="B10" s="2">
+        <v>0.6913</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.748</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.6922</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>12204</v>
+        <v>362</v>
       </c>
       <c r="C11">
-        <v>11251</v>
+        <v>361</v>
       </c>
       <c r="D11">
-        <v>12150</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.9685</v>
+        <v>0.9703</v>
       </c>
       <c r="C12">
-        <v>0.961</v>
+        <v>0.9368</v>
       </c>
       <c r="D12">
-        <v>0.9814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.9211</v>
+        <v>0.3221</v>
       </c>
       <c r="C13">
-        <v>0.9552</v>
+        <v>0.5698</v>
       </c>
       <c r="D13">
-        <v>0.8887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+        <v>0.1508</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>0.9442</v>
-      </c>
-      <c r="C14">
-        <v>0.9581</v>
-      </c>
-      <c r="D14">
-        <v>0.9327</v>
+      <c r="B14" s="2">
+        <v>0.4836</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.7086</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.2621</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>12008</v>
+        <v>711</v>
       </c>
       <c r="C15">
-        <v>10875</v>
+        <v>702</v>
       </c>
       <c r="D15">
-        <v>11641</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -1446,7 +1458,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -1460,7 +1472,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -1474,7 +1486,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -1488,7 +1500,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -1502,7 +1514,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
@@ -1516,7 +1528,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
@@ -1530,7 +1542,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
@@ -1544,7 +1556,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
@@ -1558,7 +1570,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
@@ -1572,7 +1584,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
@@ -1586,7 +1598,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
@@ -1600,7 +1612,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
@@ -1614,7 +1626,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
@@ -1628,7 +1640,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
@@ -1642,7 +1654,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
@@ -1656,7 +1668,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
@@ -1670,7 +1682,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
@@ -1684,7 +1696,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
@@ -1698,7 +1710,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
@@ -1712,49 +1724,49 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
+      <c r="B36">
+        <v>0.2923</v>
+      </c>
+      <c r="C36">
+        <v>0.1891</v>
+      </c>
+      <c r="D36">
+        <v>0.4376</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="B37">
+        <v>0.0774</v>
+      </c>
+      <c r="C37">
+        <v>0.0781</v>
+      </c>
+      <c r="D37">
+        <v>0.0778</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>18</v>
+      <c r="B38" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.3598</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
@@ -1768,7 +1780,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
@@ -1782,7 +1794,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
@@ -1796,7 +1808,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
@@ -1810,7 +1822,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
@@ -1824,7 +1836,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
@@ -1838,7 +1850,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
@@ -1852,7 +1864,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
@@ -1866,59 +1878,59 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
+      <c r="B47">
+        <v>0.1324</v>
+      </c>
+      <c r="C47">
+        <v>0.1606</v>
+      </c>
+      <c r="D47">
+        <v>0.1074</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="B48">
+        <v>0.5</v>
+      </c>
+      <c r="C48">
+        <v>0.3889</v>
+      </c>
+      <c r="D48">
+        <v>0.6044</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="1:4">
+      <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
+      <c r="B49" s="2">
+        <v>0.2093</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.2273</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.1824</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
+      <c r="B50">
+        <v>90</v>
+      </c>
+      <c r="C50">
+        <v>90</v>
+      </c>
+      <c r="D50">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1932,28 +1944,31 @@
   <sheetPr/>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1967,7 +1982,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1981,7 +1996,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -1995,7 +2010,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -2009,7 +2024,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -2023,7 +2038,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2037,7 +2052,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -2051,7 +2066,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -2065,7 +2080,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -2079,7 +2094,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -2093,7 +2108,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -2107,7 +2122,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
@@ -2121,7 +2136,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
@@ -2135,7 +2150,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
@@ -2149,7 +2164,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16">
@@ -2163,7 +2178,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17">
@@ -2177,7 +2192,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1">
@@ -2191,7 +2206,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19">
@@ -2205,7 +2220,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20">
@@ -2219,7 +2234,7 @@
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1">
@@ -2233,7 +2248,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22">
@@ -2247,7 +2262,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23">
@@ -2260,22 +2275,22 @@
         <v>0.9803</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="2" customFormat="1" spans="1:4">
+      <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0.7021</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.6906</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0.7032</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25">
@@ -2289,7 +2304,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B26">
@@ -2303,7 +2318,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27">
@@ -2316,22 +2331,22 @@
         <v>0.2456</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+    <row r="28" s="2" customFormat="1" spans="1:4">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>0.3977</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>0.3311</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>0.3886</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29">
@@ -2345,7 +2360,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
@@ -2359,7 +2374,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
@@ -2373,7 +2388,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
@@ -2387,7 +2402,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
@@ -2401,7 +2416,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
@@ -2415,7 +2430,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
@@ -2429,7 +2444,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
@@ -2443,7 +2458,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
@@ -2457,7 +2472,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
@@ -2471,7 +2486,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
@@ -2485,7 +2500,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
@@ -2499,7 +2514,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
@@ -2513,7 +2528,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
@@ -2527,7 +2542,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
@@ -2541,7 +2556,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
@@ -2555,7 +2570,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
@@ -2569,7 +2584,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
@@ -2583,7 +2598,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
@@ -2597,7 +2612,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
@@ -2611,7 +2626,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
@@ -2625,7 +2640,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
@@ -2650,7 +2665,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2662,18 +2677,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -2687,7 +2702,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2701,7 +2716,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -2715,7 +2730,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -2729,7 +2744,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
@@ -2743,7 +2758,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
@@ -2757,7 +2772,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
@@ -2771,7 +2786,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
@@ -2785,7 +2800,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
@@ -2799,7 +2814,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
@@ -2813,7 +2828,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -2827,7 +2842,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
@@ -2841,7 +2856,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
@@ -2855,7 +2870,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
@@ -2869,7 +2884,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -2883,7 +2898,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -2897,7 +2912,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -2911,7 +2926,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -2925,7 +2940,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -2939,7 +2954,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
@@ -2953,7 +2968,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
@@ -2967,7 +2982,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
@@ -2981,7 +2996,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
@@ -2995,7 +3010,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
@@ -3009,7 +3024,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
@@ -3023,7 +3038,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
@@ -3037,7 +3052,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
@@ -3051,7 +3066,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
@@ -3065,7 +3080,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30">
@@ -3079,7 +3094,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B31">
@@ -3093,7 +3108,7 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:4">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="1">
@@ -3107,7 +3122,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B33">
@@ -3121,7 +3136,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34">
@@ -3135,7 +3150,7 @@
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:4">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="1">
@@ -3149,7 +3164,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B36">
@@ -3163,7 +3178,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B37">
@@ -3177,7 +3192,7 @@
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:4">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="1">
@@ -3191,7 +3206,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B39">
@@ -3205,7 +3220,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B40">
@@ -3218,22 +3233,22 @@
         <v>0.7965</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+    <row r="41" s="2" customFormat="1" spans="1:4">
+      <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>0.6369</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>0.6366</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>0.664</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B42">
@@ -3247,7 +3262,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B43">
@@ -3261,7 +3276,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44">
@@ -3274,22 +3289,22 @@
         <v>0.8774</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+    <row r="45" s="2" customFormat="1" spans="1:4">
+      <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>0.5742</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>0.5477</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>0.6203</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B46">
@@ -3303,7 +3318,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B47">
@@ -3317,7 +3332,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B48">
@@ -3331,7 +3346,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B49">
@@ -3345,7 +3360,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B50">
@@ -3370,226 +3385,226 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="54.875" customWidth="1"/>
+    <col min="1" max="1" width="57.25" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.5047</v>
+        <v>0.5283</v>
       </c>
       <c r="C2">
-        <v>0.4406</v>
+        <v>0.5114</v>
       </c>
       <c r="D2">
-        <v>0.4701</v>
+        <v>0.5569</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.3113</v>
+        <v>0.504</v>
       </c>
       <c r="C3">
-        <v>0.3131</v>
+        <v>0.5085</v>
       </c>
       <c r="D3">
-        <v>0.3103</v>
+        <v>0.5107</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.1935</v>
+        <v>0.0242</v>
       </c>
       <c r="C4" s="1">
-        <v>0.1275</v>
+        <v>0.0029</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1598</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.2029</v>
+        <v>0.4717</v>
       </c>
       <c r="C5">
-        <v>0.3703</v>
+        <v>0.4886</v>
       </c>
       <c r="D5">
-        <v>0.0923</v>
+        <v>0.4431</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.6113</v>
+        <v>0.496</v>
       </c>
       <c r="C6">
-        <v>0.6088</v>
+        <v>0.4915</v>
       </c>
       <c r="D6">
-        <v>0.612</v>
+        <v>0.4893</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.4084</v>
+        <v>-0.0242</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.2385</v>
+        <v>-0.0029</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.5197</v>
+        <v>-0.0462</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5588</v>
+        <v>0.926</v>
       </c>
       <c r="C8">
-        <v>0.6398</v>
+        <v>0.957</v>
       </c>
       <c r="D8">
-        <v>0.5745</v>
+        <v>0.9022</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9061</v>
+        <v>0.9705</v>
       </c>
       <c r="C9">
-        <v>0.9003</v>
+        <v>0.9625</v>
       </c>
       <c r="D9">
-        <v>0.8705</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+        <v>0.9839</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0.6913</v>
-      </c>
-      <c r="C10">
-        <v>0.748</v>
-      </c>
-      <c r="D10">
-        <v>0.6922</v>
+      <c r="B10" s="2">
+        <v>0.9477</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.9597</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.9413</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>362</v>
+        <v>12204</v>
       </c>
       <c r="C11">
-        <v>361</v>
+        <v>11251</v>
       </c>
       <c r="D11">
-        <v>363</v>
+        <v>12150</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.9703</v>
+        <v>0.9685</v>
       </c>
       <c r="C12">
-        <v>0.9368</v>
+        <v>0.961</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9814</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.3221</v>
+        <v>0.9211</v>
       </c>
       <c r="C13">
-        <v>0.5698</v>
+        <v>0.9552</v>
       </c>
       <c r="D13">
-        <v>0.1508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+        <v>0.8887</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>0.4836</v>
-      </c>
-      <c r="C14">
-        <v>0.7086</v>
-      </c>
-      <c r="D14">
-        <v>0.2621</v>
+      <c r="B14" s="2">
+        <v>0.9442</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.9581</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.9327</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>711</v>
+        <v>12008</v>
       </c>
       <c r="C15">
-        <v>702</v>
+        <v>10875</v>
       </c>
       <c r="D15">
-        <v>716</v>
+        <v>11641</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -3603,7 +3618,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -3617,7 +3632,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -3631,7 +3646,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -3645,7 +3660,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -3659,7 +3674,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
@@ -3673,7 +3688,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
@@ -3687,7 +3702,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
@@ -3701,7 +3716,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
@@ -3715,7 +3730,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
@@ -3729,7 +3744,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
@@ -3743,7 +3758,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
@@ -3757,7 +3772,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
@@ -3771,7 +3786,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
@@ -3785,7 +3800,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
@@ -3799,7 +3814,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
@@ -3813,7 +3828,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
@@ -3827,7 +3842,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
@@ -3841,7 +3856,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
@@ -3855,7 +3870,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
@@ -3869,49 +3884,49 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36">
-        <v>0.2923</v>
-      </c>
-      <c r="C36">
-        <v>0.1891</v>
-      </c>
-      <c r="D36">
-        <v>0.4376</v>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37">
-        <v>0.0774</v>
-      </c>
-      <c r="C37">
-        <v>0.0781</v>
-      </c>
-      <c r="D37">
-        <v>0.0778</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.3598</v>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
@@ -3925,7 +3940,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
@@ -3939,7 +3954,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
@@ -3953,7 +3968,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
@@ -3967,7 +3982,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
@@ -3981,7 +3996,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
@@ -3995,7 +4010,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
@@ -4009,7 +4024,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
@@ -4023,59 +4038,59 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B47">
-        <v>0.1324</v>
-      </c>
-      <c r="C47">
-        <v>0.1606</v>
-      </c>
-      <c r="D47">
-        <v>0.1074</v>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B48">
-        <v>0.5</v>
-      </c>
-      <c r="C48">
-        <v>0.3889</v>
-      </c>
-      <c r="D48">
-        <v>0.6044</v>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B49">
-        <v>0.2093</v>
-      </c>
-      <c r="C49">
-        <v>0.2273</v>
-      </c>
-      <c r="D49">
-        <v>0.1824</v>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B50">
-        <v>90</v>
-      </c>
-      <c r="C50">
-        <v>90</v>
-      </c>
-      <c r="D50">
-        <v>91</v>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4089,8 +4104,8 @@
   <sheetPr/>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4102,18 +4117,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -4127,7 +4142,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -4141,7 +4156,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -4155,7 +4170,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -4169,7 +4184,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -4183,7 +4198,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -4197,7 +4212,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -4211,7 +4226,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -4224,22 +4239,22 @@
         <v>0.9841</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.9355</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.9375</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.9079</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -4253,7 +4268,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12">
@@ -4267,7 +4282,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13">
@@ -4280,22 +4295,22 @@
         <v>0.8182</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.9316</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.9359</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.8923</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -4309,7 +4324,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -4323,7 +4338,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -4337,7 +4352,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -4351,7 +4366,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -4365,7 +4380,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -4379,7 +4394,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
@@ -4393,7 +4408,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
@@ -4407,7 +4422,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
@@ -4421,7 +4436,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
@@ -4435,7 +4450,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
@@ -4449,7 +4464,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
@@ -4463,7 +4478,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
@@ -4477,7 +4492,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
@@ -4491,7 +4506,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
@@ -4505,7 +4520,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
@@ -4519,7 +4534,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
@@ -4533,7 +4548,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
@@ -4547,7 +4562,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
@@ -4561,7 +4576,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
@@ -4575,7 +4590,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
@@ -4589,7 +4604,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
@@ -4603,7 +4618,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
@@ -4617,7 +4632,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
@@ -4631,7 +4646,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
@@ -4645,7 +4660,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
@@ -4659,7 +4674,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
@@ -4673,7 +4688,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
@@ -4687,7 +4702,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
@@ -4701,7 +4716,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
@@ -4715,7 +4730,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
@@ -4729,7 +4744,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
@@ -4743,7 +4758,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
@@ -4757,7 +4772,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
@@ -4771,7 +4786,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
@@ -4785,7 +4800,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
@@ -4810,7 +4825,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4822,18 +4837,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -4847,7 +4862,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -4861,7 +4876,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
@@ -4875,7 +4890,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -4889,7 +4904,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -4903,7 +4918,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1">
@@ -4917,7 +4932,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -4931,7 +4946,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -4944,22 +4959,22 @@
         <v>0.9958</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:4">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.8629</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.8956</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.8225</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -4973,7 +4988,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12">
@@ -4987,7 +5002,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13">
@@ -5000,22 +5015,22 @@
         <v>0.5772</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:4">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.8469</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.9012</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.73</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -5029,7 +5044,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
@@ -5043,7 +5058,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
@@ -5057,7 +5072,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
@@ -5071,7 +5086,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
@@ -5085,7 +5100,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
@@ -5099,7 +5114,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
@@ -5113,7 +5128,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
@@ -5127,7 +5142,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
@@ -5141,7 +5156,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
@@ -5155,7 +5170,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
@@ -5169,7 +5184,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
@@ -5183,7 +5198,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
@@ -5197,7 +5212,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
@@ -5211,7 +5226,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B29" t="s">
@@ -5225,7 +5240,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B30" t="s">
@@ -5239,7 +5254,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B31" t="s">
@@ -5253,7 +5268,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
@@ -5267,7 +5282,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
@@ -5281,7 +5296,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
@@ -5295,7 +5310,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
@@ -5309,7 +5324,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
@@ -5323,7 +5338,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
@@ -5337,7 +5352,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B38" t="s">
@@ -5351,7 +5366,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
@@ -5365,7 +5380,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
@@ -5379,7 +5394,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
@@ -5393,7 +5408,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
@@ -5407,7 +5422,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
@@ -5421,7 +5436,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
@@ -5435,7 +5450,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
@@ -5449,7 +5464,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B46" t="s">
@@ -5463,7 +5478,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
@@ -5477,7 +5492,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
@@ -5491,7 +5506,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B49" t="s">
@@ -5505,7 +5520,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
